--- a/Tests/Import Product Unit test.xlsx
+++ b/Tests/Import Product Unit test.xlsx
@@ -112,9 +112,6 @@
 4) Choose a provider and its product file, then press "Import" button.</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>1) Sign in as the administrator;</t>
   </si>
   <si>
@@ -126,7 +123,10 @@
 2) It will shows that "You are going to import 0 products"</t>
   </si>
   <si>
-    <t>Not planned for this version</t>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>It is integrated in our current design but not implemented. It can be implemented in future Version.</t>
   </si>
 </sst>
 </file>
@@ -531,45 +531,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -588,6 +549,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="F12" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,36 +945,36 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -1003,10 +1003,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="2">
         <v>1</v>
       </c>
@@ -1025,8 +1025,8 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="24"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="6">
         <v>2</v>
       </c>
@@ -1045,8 +1045,8 @@
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-      <c r="C9" s="24"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="6">
         <v>3</v>
       </c>
@@ -1065,8 +1065,8 @@
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="6">
         <v>4</v>
       </c>
@@ -1085,8 +1085,8 @@
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="6">
         <v>5</v>
       </c>
@@ -1100,52 +1100,52 @@
         <v>21</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="12">
         <v>6</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="28"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18">
         <v>7</v>
       </c>
       <c r="E13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="32"/>
+      <c r="I13" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
